--- a/src/test/resources/Excelfiles/Examinations.xlsx
+++ b/src/test/resources/Excelfiles/Examinations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Examcenter_workspace\Automation_Cucumber_EC\src\test\resources\Excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFFC83A-CB06-4120-8454-4F68014AF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDB2BE-7E35-4E0E-BFD5-0DD101D42280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{566BECAE-0D03-4595-8838-1875699E847E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
+    <sheet name="STAGE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -53,9 +54,6 @@
     <t>TestName</t>
   </si>
   <si>
-    <t>"Schedule Test"</t>
-  </si>
-  <si>
     <t>ScheduleName</t>
   </si>
   <si>
@@ -92,34 +90,46 @@
     <t>Final Examinations15</t>
   </si>
   <si>
+    <t>ExamtakerFullname</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>AddressField</t>
+  </si>
+  <si>
+    <t>Srinagar colony</t>
+  </si>
+  <si>
+    <t>EditLocationName</t>
+  </si>
+  <si>
+    <t>Location100</t>
+  </si>
+  <si>
+    <t>"Test January 9"</t>
+  </si>
+  <si>
+    <t>January Exams</t>
+  </si>
+  <si>
     <t>Examtaker Create</t>
   </si>
   <si>
-    <t>ExamtakerFullname</t>
-  </si>
-  <si>
-    <t>Schedule dec12</t>
-  </si>
-  <si>
-    <t>Test Examinations55</t>
-  </si>
-  <si>
-    <t>LocationName</t>
-  </si>
-  <si>
-    <t>AddressField</t>
-  </si>
-  <si>
-    <t>Srinagar colony</t>
-  </si>
-  <si>
-    <t>EditLocationName</t>
-  </si>
-  <si>
-    <t>Armoor123</t>
-  </si>
-  <si>
-    <t>Nirmal dist12345</t>
+    <t>Schedule test123</t>
+  </si>
+  <si>
+    <t>Prod Location11</t>
+  </si>
+  <si>
+    <t>Stage Location11</t>
+  </si>
+  <si>
+    <t>January Exams12</t>
+  </si>
+  <si>
+    <t>Schedule test10</t>
   </si>
 </sst>
 </file>
@@ -481,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1037FEEC-3965-40C2-B3A4-8B47E1ECD479}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,84 +527,207 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E554D4-691E-4AB8-8FF8-C9DB02739660}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excelfiles/Examinations.xlsx
+++ b/src/test/resources/Excelfiles/Examinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Examcenter_workspace\Automation_Cucumber_EC\src\test\resources\Excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDB2BE-7E35-4E0E-BFD5-0DD101D42280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5AE87-301B-41EF-8657-BCEC8C586007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{566BECAE-0D03-4595-8838-1875699E847E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>ExamName</t>
   </si>
@@ -120,16 +120,19 @@
     <t>Schedule test123</t>
   </si>
   <si>
-    <t>Prod Location11</t>
-  </si>
-  <si>
     <t>Stage Location11</t>
   </si>
   <si>
-    <t>January Exams12</t>
-  </si>
-  <si>
-    <t>Schedule test10</t>
+    <t>January Exams27</t>
+  </si>
+  <si>
+    <t>Schedule test108</t>
+  </si>
+  <si>
+    <t>Prod Location25</t>
+  </si>
+  <si>
+    <t>Location105</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1037FEEC-3965-40C2-B3A4-8B47E1ECD479}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +565,7 @@
     </row>
     <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -574,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -598,13 +601,13 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
